--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.995795333333333</v>
+        <v>0.7195943333333332</v>
       </c>
       <c r="N2">
-        <v>5.987386</v>
+        <v>2.158783</v>
       </c>
       <c r="O2">
-        <v>0.03246541069287895</v>
+        <v>0.03204779321415739</v>
       </c>
       <c r="P2">
-        <v>0.0423018942495388</v>
+        <v>0.03468223907394029</v>
       </c>
       <c r="Q2">
-        <v>302.8141857773323</v>
+        <v>104.1852458392716</v>
       </c>
       <c r="R2">
-        <v>2725.32767199599</v>
+        <v>937.6672125534448</v>
       </c>
       <c r="S2">
-        <v>0.00876806157096518</v>
+        <v>0.007787762245102228</v>
       </c>
       <c r="T2">
-        <v>0.01177416752841554</v>
+        <v>0.008705681855170693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>16.53477466666667</v>
       </c>
       <c r="N3">
-        <v>49.604324</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O3">
-        <v>0.2689695888660982</v>
+        <v>0.7363913455312854</v>
       </c>
       <c r="P3">
-        <v>0.3504629346041594</v>
+        <v>0.7969254084681946</v>
       </c>
       <c r="Q3">
-        <v>2508.756406066851</v>
+        <v>2393.959323670273</v>
       </c>
       <c r="R3">
-        <v>22578.80765460166</v>
+        <v>21545.63391303246</v>
       </c>
       <c r="S3">
-        <v>0.0726416781911348</v>
+        <v>0.1789465090474672</v>
       </c>
       <c r="T3">
-        <v>0.09754667912003726</v>
+        <v>0.2000383843048645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05109933333333333</v>
+        <v>5.116736</v>
       </c>
       <c r="N4">
-        <v>0.153298</v>
+        <v>10.233472</v>
       </c>
       <c r="O4">
-        <v>0.0008312279396045214</v>
+        <v>0.2278785277530463</v>
       </c>
       <c r="P4">
-        <v>0.001083076284820421</v>
+        <v>0.1644073176694804</v>
       </c>
       <c r="Q4">
-        <v>7.753101111452223</v>
+        <v>740.8179488924799</v>
       </c>
       <c r="R4">
-        <v>69.77791000307001</v>
+        <v>4444.907693354879</v>
       </c>
       <c r="S4">
-        <v>0.0002244930095881275</v>
+        <v>0.05537553812350115</v>
       </c>
       <c r="T4">
-        <v>0.0003014598246665648</v>
+        <v>0.04126832178398539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>42.884111</v>
+        <v>0.08268233333333334</v>
       </c>
       <c r="N5">
-        <v>85.76822200000001</v>
+        <v>0.248047</v>
       </c>
       <c r="O5">
-        <v>0.697591708208227</v>
+        <v>0.003682333501510851</v>
       </c>
       <c r="P5">
-        <v>0.6059669874324066</v>
+        <v>0.003985034788384784</v>
       </c>
       <c r="Q5">
-        <v>6506.63769894729</v>
+        <v>11.97102148511167</v>
       </c>
       <c r="R5">
-        <v>39039.82619368374</v>
+        <v>107.739193366005</v>
       </c>
       <c r="S5">
-        <v>0.1884013452602381</v>
+        <v>0.00089482410302975</v>
       </c>
       <c r="T5">
-        <v>0.1686628212115162</v>
+        <v>0.001000294270952442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.7260716666667</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H6">
-        <v>455.178215</v>
+        <v>246.746613</v>
       </c>
       <c r="I6">
-        <v>0.2700739458961593</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J6">
-        <v>0.2783366498663096</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.008733333333333334</v>
+        <v>0.7195943333333332</v>
       </c>
       <c r="N6">
-        <v>0.0262</v>
+        <v>2.158783</v>
       </c>
       <c r="O6">
-        <v>0.0001420642931912906</v>
+        <v>0.03204779321415739</v>
       </c>
       <c r="P6">
-        <v>0.0001851074290747108</v>
+        <v>0.03468223907394029</v>
       </c>
       <c r="Q6">
-        <v>1.325074359222222</v>
+        <v>59.18582149466432</v>
       </c>
       <c r="R6">
-        <v>11.925669233</v>
+        <v>532.6723934519789</v>
       </c>
       <c r="S6">
-        <v>3.836786423312073E-05</v>
+        <v>0.004424091937092357</v>
       </c>
       <c r="T6">
-        <v>5.152218167402053E-05</v>
+        <v>0.004945546061909382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.995795333333333</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N7">
-        <v>5.987386</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O7">
-        <v>0.03246541069287895</v>
+        <v>0.7363913455312854</v>
       </c>
       <c r="P7">
-        <v>0.0423018942495388</v>
+        <v>0.7969254084681946</v>
       </c>
       <c r="Q7">
-        <v>164.1519129137353</v>
+        <v>1359.966548572735</v>
       </c>
       <c r="R7">
-        <v>1477.367216223618</v>
+        <v>12239.69893715461</v>
       </c>
       <c r="S7">
-        <v>0.00475306028257771</v>
+        <v>0.10165639151935</v>
       </c>
       <c r="T7">
-        <v>0.006382634016285499</v>
+        <v>0.1136383180763778</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
         <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.53477466666667</v>
+        <v>5.116736</v>
       </c>
       <c r="N8">
-        <v>49.604324</v>
+        <v>10.233472</v>
       </c>
       <c r="O8">
-        <v>0.2689695888660982</v>
+        <v>0.2278785277530463</v>
       </c>
       <c r="P8">
-        <v>0.3504629346041594</v>
+        <v>0.1644073176694804</v>
       </c>
       <c r="Q8">
-        <v>1359.966548572735</v>
+        <v>420.8457592050559</v>
       </c>
       <c r="R8">
-        <v>12239.69893715461</v>
+        <v>2525.074555230336</v>
       </c>
       <c r="S8">
-        <v>0.03937817642766248</v>
+        <v>0.03145787763081819</v>
       </c>
       <c r="T8">
-        <v>0.05287887664454023</v>
+        <v>0.02344381401431266</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
         <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.05109933333333333</v>
+        <v>0.08268233333333334</v>
       </c>
       <c r="N9">
-        <v>0.153298</v>
+        <v>0.248047</v>
       </c>
       <c r="O9">
-        <v>0.0008312279396045214</v>
+        <v>0.003682333501510851</v>
       </c>
       <c r="P9">
-        <v>0.001083076284820421</v>
+        <v>0.003985034788384784</v>
       </c>
       <c r="Q9">
-        <v>4.202862475519334</v>
+        <v>6.800528568312334</v>
       </c>
       <c r="R9">
-        <v>37.825762279674</v>
+        <v>61.204757114811</v>
       </c>
       <c r="S9">
-        <v>0.0001216949492146653</v>
+        <v>0.0005083339699821372</v>
       </c>
       <c r="T9">
-        <v>0.000163417730112696</v>
+        <v>0.0005682497333073481</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.24887100000001</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H10">
-        <v>246.746613</v>
+        <v>491.577271</v>
       </c>
       <c r="I10">
-        <v>0.146403824289839</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J10">
-        <v>0.150882936320401</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>42.884111</v>
+        <v>0.7195943333333332</v>
       </c>
       <c r="N10">
-        <v>85.76822200000001</v>
+        <v>2.158783</v>
       </c>
       <c r="O10">
-        <v>0.697591708208227</v>
+        <v>0.03204779321415739</v>
       </c>
       <c r="P10">
-        <v>0.6059669874324066</v>
+        <v>0.03468223907394029</v>
       </c>
       <c r="Q10">
-        <v>3527.169713588682</v>
+        <v>117.9120728690214</v>
       </c>
       <c r="R10">
-        <v>21163.01828153209</v>
+        <v>1061.208655821193</v>
       </c>
       <c r="S10">
-        <v>0.1021300938745659</v>
+        <v>0.008813831382110865</v>
       </c>
       <c r="T10">
-        <v>0.09143007837702903</v>
+        <v>0.009852690609042772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.24887100000001</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H11">
-        <v>246.746613</v>
+        <v>491.577271</v>
       </c>
       <c r="I11">
-        <v>0.146403824289839</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J11">
-        <v>0.150882936320401</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.008733333333333334</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N11">
-        <v>0.0262</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O11">
-        <v>0.0001420642931912906</v>
+        <v>0.7363913455312854</v>
       </c>
       <c r="P11">
-        <v>0.0001851074290747108</v>
+        <v>0.7969254084681946</v>
       </c>
       <c r="Q11">
-        <v>0.7183068067333335</v>
+        <v>2709.373135746645</v>
       </c>
       <c r="R11">
-        <v>6.464761260600001</v>
+        <v>24384.35822171981</v>
       </c>
       <c r="S11">
-        <v>2.079875581823788E-05</v>
+        <v>0.202523434527507</v>
       </c>
       <c r="T11">
-        <v>2.792955243351274E-05</v>
+        <v>0.226394249557605</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.995795333333333</v>
+        <v>5.116736</v>
       </c>
       <c r="N12">
-        <v>5.987386</v>
+        <v>10.233472</v>
       </c>
       <c r="O12">
-        <v>0.03246541069287895</v>
+        <v>0.2278785277530463</v>
       </c>
       <c r="P12">
-        <v>0.0423018942495388</v>
+        <v>0.1644073176694804</v>
       </c>
       <c r="Q12">
-        <v>246.369599778302</v>
+        <v>838.4237064358186</v>
       </c>
       <c r="R12">
-        <v>2217.326398004718</v>
+        <v>5030.542238614911</v>
       </c>
       <c r="S12">
-        <v>0.007133694263777474</v>
+        <v>0.06267148897889657</v>
       </c>
       <c r="T12">
-        <v>0.009579461854641948</v>
+        <v>0.04670558989592848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>16.53477466666667</v>
+        <v>0.08268233333333334</v>
       </c>
       <c r="N13">
-        <v>49.604324</v>
+        <v>0.248047</v>
       </c>
       <c r="O13">
-        <v>0.2689695888660982</v>
+        <v>0.003682333501510851</v>
       </c>
       <c r="P13">
-        <v>0.3504629346041594</v>
+        <v>0.003985034788384784</v>
       </c>
       <c r="Q13">
-        <v>2041.124031614668</v>
+        <v>13.54825192663745</v>
       </c>
       <c r="R13">
-        <v>18370.11628453201</v>
+        <v>121.934267339737</v>
       </c>
       <c r="S13">
-        <v>0.05910126415389944</v>
+        <v>0.001012720793538978</v>
       </c>
       <c r="T13">
-        <v>0.07936397111916621</v>
+        <v>0.001132087082166773</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>123.444321</v>
+        <v>57.0238095</v>
       </c>
       <c r="H14">
-        <v>370.332963</v>
+        <v>114.047619</v>
       </c>
       <c r="I14">
-        <v>0.2197321429647646</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J14">
-        <v>0.2264546783208506</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.05109933333333333</v>
+        <v>0.7195943333333332</v>
       </c>
       <c r="N14">
-        <v>0.153298</v>
+        <v>2.158783</v>
       </c>
       <c r="O14">
-        <v>0.0008312279396045214</v>
+        <v>0.03204779321415739</v>
       </c>
       <c r="P14">
-        <v>0.001083076284820421</v>
+        <v>0.03468223907394029</v>
       </c>
       <c r="Q14">
-        <v>6.307922506885999</v>
+        <v>41.03401018127949</v>
       </c>
       <c r="R14">
-        <v>56.771302561974</v>
+        <v>246.204061087677</v>
       </c>
       <c r="S14">
-        <v>0.0001826474964614874</v>
+        <v>0.003067258829987351</v>
       </c>
       <c r="T14">
-        <v>0.0002452676916759503</v>
+        <v>0.002285858136644784</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>123.444321</v>
+        <v>57.0238095</v>
       </c>
       <c r="H15">
-        <v>370.332963</v>
+        <v>114.047619</v>
       </c>
       <c r="I15">
-        <v>0.2197321429647646</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J15">
-        <v>0.2264546783208506</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.884111</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N15">
-        <v>85.76822200000001</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O15">
-        <v>0.697591708208227</v>
+        <v>0.7363913455312854</v>
       </c>
       <c r="P15">
-        <v>0.6059669874324066</v>
+        <v>0.7969254084681946</v>
       </c>
       <c r="Q15">
-        <v>5293.799964083631</v>
+        <v>942.8758407174261</v>
       </c>
       <c r="R15">
-        <v>31762.79978450179</v>
+        <v>5657.255044304557</v>
       </c>
       <c r="S15">
-        <v>0.1532833209590445</v>
+        <v>0.07047920091762511</v>
       </c>
       <c r="T15">
-        <v>0.1372240592120605</v>
+        <v>0.05252424520119168</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>123.444321</v>
+        <v>57.0238095</v>
       </c>
       <c r="H16">
-        <v>370.332963</v>
+        <v>114.047619</v>
       </c>
       <c r="I16">
-        <v>0.2197321429647646</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J16">
-        <v>0.2264546783208506</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.008733333333333334</v>
+        <v>5.116736</v>
       </c>
       <c r="N16">
-        <v>0.0262</v>
+        <v>10.233472</v>
       </c>
       <c r="O16">
-        <v>0.0001420642931912906</v>
+        <v>0.2278785277530463</v>
       </c>
       <c r="P16">
-        <v>0.0001851074290747108</v>
+        <v>0.1644073176694804</v>
       </c>
       <c r="Q16">
-        <v>1.0780804034</v>
+        <v>291.7757789257919</v>
       </c>
       <c r="R16">
-        <v>9.702723630600001</v>
+        <v>1167.103115703168</v>
       </c>
       <c r="S16">
-        <v>3.12160915816969E-05</v>
+        <v>0.02181000176031703</v>
       </c>
       <c r="T16">
-        <v>4.191844330591331E-05</v>
+        <v>0.01083585762780537</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H17">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I17">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J17">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.995795333333333</v>
+        <v>0.08268233333333334</v>
       </c>
       <c r="N17">
-        <v>5.987386</v>
+        <v>0.248047</v>
       </c>
       <c r="O17">
-        <v>0.03246541069287895</v>
+        <v>0.003682333501510851</v>
       </c>
       <c r="P17">
-        <v>0.0423018942495388</v>
+        <v>0.003985034788384784</v>
       </c>
       <c r="Q17">
-        <v>99.85425580337501</v>
+        <v>4.714861625015501</v>
       </c>
       <c r="R17">
-        <v>599.12553482025</v>
+        <v>28.289169750093</v>
       </c>
       <c r="S17">
-        <v>0.002891305309093741</v>
+        <v>0.0003524320651968598</v>
       </c>
       <c r="T17">
-        <v>0.002588387623994872</v>
+        <v>0.0002626480999805579</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.0323125</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H18">
-        <v>100.064625</v>
+        <v>443.6689</v>
       </c>
       <c r="I18">
-        <v>0.08905802352064279</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J18">
-        <v>0.06118845668531954</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>16.53477466666667</v>
+        <v>0.7195943333333332</v>
       </c>
       <c r="N18">
-        <v>49.604324</v>
+        <v>2.158783</v>
       </c>
       <c r="O18">
-        <v>0.2689695888660982</v>
+        <v>0.03204779321415739</v>
       </c>
       <c r="P18">
-        <v>0.3504629346041594</v>
+        <v>0.03468223907394029</v>
       </c>
       <c r="Q18">
-        <v>827.2730132397501</v>
+        <v>106.4205421054111</v>
       </c>
       <c r="R18">
-        <v>4963.6380794385</v>
+        <v>957.7848789486999</v>
       </c>
       <c r="S18">
-        <v>0.02395389997157459</v>
+        <v>0.007954848819864593</v>
       </c>
       <c r="T18">
-        <v>0.02144428609383658</v>
+        <v>0.008892462411172662</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.0323125</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H19">
-        <v>100.064625</v>
+        <v>443.6689</v>
       </c>
       <c r="I19">
-        <v>0.08905802352064279</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J19">
-        <v>0.06118845668531954</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.05109933333333333</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N19">
-        <v>0.153298</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O19">
-        <v>0.0008312279396045214</v>
+        <v>0.7363913455312854</v>
       </c>
       <c r="P19">
-        <v>0.001083076284820421</v>
+        <v>0.7969254084681946</v>
       </c>
       <c r="Q19">
-        <v>2.556617813875</v>
+        <v>2445.321762702622</v>
       </c>
       <c r="R19">
-        <v>15.33970688325</v>
+        <v>22007.8958643236</v>
       </c>
       <c r="S19">
-        <v>7.402751739631491E-05</v>
+        <v>0.1827858095193361</v>
       </c>
       <c r="T19">
-        <v>6.627176634063112E-05</v>
+        <v>0.2043302113281558</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.0323125</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H20">
-        <v>100.064625</v>
+        <v>443.6689</v>
       </c>
       <c r="I20">
-        <v>0.08905802352064279</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J20">
-        <v>0.06118845668531954</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>42.884111</v>
+        <v>5.116736</v>
       </c>
       <c r="N20">
-        <v>85.76822200000001</v>
+        <v>10.233472</v>
       </c>
       <c r="O20">
-        <v>0.697591708208227</v>
+        <v>0.2278785277530463</v>
       </c>
       <c r="P20">
-        <v>0.6059669874324066</v>
+        <v>0.1644073176694804</v>
       </c>
       <c r="Q20">
-        <v>2145.591242836688</v>
+        <v>756.7122109034666</v>
       </c>
       <c r="R20">
-        <v>8582.364971346751</v>
+        <v>4540.273265420799</v>
       </c>
       <c r="S20">
-        <v>0.06212613875741366</v>
+        <v>0.05656362125951336</v>
       </c>
       <c r="T20">
-        <v>0.03707818476324138</v>
+        <v>0.04215373434744851</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,362 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.0323125</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H21">
-        <v>100.064625</v>
+        <v>443.6689</v>
       </c>
       <c r="I21">
-        <v>0.08905802352064279</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J21">
-        <v>0.06118845668531954</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.008733333333333334</v>
+        <v>0.08268233333333334</v>
       </c>
       <c r="N21">
-        <v>0.0262</v>
+        <v>0.248047</v>
       </c>
       <c r="O21">
-        <v>0.0001420642931912906</v>
+        <v>0.003682333501510851</v>
       </c>
       <c r="P21">
-        <v>0.0001851074290747108</v>
+        <v>0.003985034788384784</v>
       </c>
       <c r="Q21">
-        <v>0.4369488625000001</v>
+        <v>12.22785995981111</v>
       </c>
       <c r="R21">
-        <v>2.621693175</v>
+        <v>110.0507396383</v>
       </c>
       <c r="S21">
-        <v>1.265196516447345E-05</v>
+        <v>0.0009140225697631272</v>
       </c>
       <c r="T21">
-        <v>1.13264379060688E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H22">
-        <v>463.02893</v>
-      </c>
-      <c r="I22">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J22">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1.995795333333333</v>
-      </c>
-      <c r="N22">
-        <v>5.987386</v>
-      </c>
-      <c r="O22">
-        <v>0.03246541069287895</v>
-      </c>
-      <c r="P22">
-        <v>0.0423018942495388</v>
-      </c>
-      <c r="Q22">
-        <v>308.0369925641089</v>
-      </c>
-      <c r="R22">
-        <v>2772.33293307698</v>
-      </c>
-      <c r="S22">
-        <v>0.008919289266464842</v>
-      </c>
-      <c r="T22">
-        <v>0.01197724322620095</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H23">
-        <v>463.02893</v>
-      </c>
-      <c r="I23">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J23">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>16.53477466666667</v>
-      </c>
-      <c r="N23">
-        <v>49.604324</v>
-      </c>
-      <c r="O23">
-        <v>0.2689695888660982</v>
-      </c>
-      <c r="P23">
-        <v>0.3504629346041594</v>
-      </c>
-      <c r="Q23">
-        <v>2552.026340565924</v>
-      </c>
-      <c r="R23">
-        <v>22968.23706509332</v>
-      </c>
-      <c r="S23">
-        <v>0.07389457012182685</v>
-      </c>
-      <c r="T23">
-        <v>0.09922912162657914</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H24">
-        <v>463.02893</v>
-      </c>
-      <c r="I24">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J24">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.05109933333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.153298</v>
-      </c>
-      <c r="O24">
-        <v>0.0008312279396045214</v>
-      </c>
-      <c r="P24">
-        <v>0.001083076284820421</v>
-      </c>
-      <c r="Q24">
-        <v>7.886823212348888</v>
-      </c>
-      <c r="R24">
-        <v>70.98140891113999</v>
-      </c>
-      <c r="S24">
-        <v>0.0002283649669439263</v>
-      </c>
-      <c r="T24">
-        <v>0.0003066592720245785</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H25">
-        <v>463.02893</v>
-      </c>
-      <c r="I25">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J25">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>42.884111</v>
-      </c>
-      <c r="N25">
-        <v>85.76822200000001</v>
-      </c>
-      <c r="O25">
-        <v>0.697591708208227</v>
-      </c>
-      <c r="P25">
-        <v>0.6059669874324066</v>
-      </c>
-      <c r="Q25">
-        <v>6618.861343443744</v>
-      </c>
-      <c r="R25">
-        <v>39713.16806066246</v>
-      </c>
-      <c r="S25">
-        <v>0.1916508093569649</v>
-      </c>
-      <c r="T25">
-        <v>0.1715718438685595</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H26">
-        <v>463.02893</v>
-      </c>
-      <c r="I26">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J26">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.008733333333333334</v>
-      </c>
-      <c r="N26">
-        <v>0.0262</v>
-      </c>
-      <c r="O26">
-        <v>0.0001420642931912906</v>
-      </c>
-      <c r="P26">
-        <v>0.0001851074290747108</v>
-      </c>
-      <c r="Q26">
-        <v>1.347928662888889</v>
-      </c>
-      <c r="R26">
-        <v>12.131357966</v>
-      </c>
-      <c r="S26">
-        <v>3.902961639376164E-05</v>
-      </c>
-      <c r="T26">
-        <v>5.241081375519549E-05</v>
+        <v>0.001021755601977663</v>
       </c>
     </row>
   </sheetData>
